--- a/Sample_ID_Lookup_table_in_repositories.xlsx
+++ b/Sample_ID_Lookup_table_in_repositories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allakarpova/Box Sync/snATAC_pancan/tumor_Alla/Suppl.tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19EC8110-2D98-2546-B0E8-CEF66D1DF7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A2FC9E-E22F-F541-BF27-08BF56203A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4120" yWindow="500" windowWidth="27640" windowHeight="21900" xr2:uid="{8A857C8D-A7ED-5E4A-9723-60A27A53F0CD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="590">
   <si>
     <t>BM2</t>
   </si>
@@ -1785,9 +1785,6 @@
     <t>Cancer type</t>
   </si>
   <si>
-    <t>Piece_ID</t>
-  </si>
-  <si>
     <t>ATAC data type</t>
   </si>
   <si>
@@ -1801,13 +1798,22 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>HTAN DCC link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://humantumoratlas.org/explore?selectedFilters=%5B%7B%22group%22%3A%22AtlasName%22%2C%22value%22%3A%22HTAN+WUSTL%22%7D%5D&amp;tab=file </t>
+  </si>
+  <si>
+    <t>Piece_ID_ATAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1843,6 +1849,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1861,17 +1875,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2184,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA608FF-98EC-6A48-B5D4-D22FC77FAB05}">
-  <dimension ref="A1:I1021"/>
+  <dimension ref="A1:I1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2200,78 +2217,41 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -2280,36 +2260,35 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>243</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>587</v>
+        <v>244</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>587</v>
+        <v>245</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2317,22 +2296,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>587</v>
+        <v>246</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>587</v>
+        <v>247</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2340,7 +2319,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -2349,13 +2328,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2363,7 +2342,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -2372,13 +2351,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2386,7 +2365,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -2395,13 +2374,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2409,7 +2388,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -2418,13 +2397,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2432,7 +2411,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -2441,13 +2420,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2455,7 +2434,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -2464,13 +2443,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2478,7 +2457,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -2487,13 +2466,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2501,7 +2480,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -2510,13 +2489,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2524,7 +2503,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -2533,13 +2512,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2547,7 +2526,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -2556,13 +2535,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2570,7 +2549,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -2579,13 +2558,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2593,7 +2572,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
@@ -2602,13 +2581,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2616,7 +2595,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -2625,13 +2604,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2639,7 +2618,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -2648,13 +2627,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2662,7 +2641,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -2671,13 +2650,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2685,7 +2664,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -2694,13 +2673,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2708,7 +2687,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
@@ -2717,13 +2696,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2731,22 +2710,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2754,22 +2733,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2777,7 +2756,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
@@ -2786,13 +2765,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2800,22 +2779,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2823,22 +2802,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F28" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2846,7 +2825,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
@@ -2855,13 +2834,13 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2869,7 +2848,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
@@ -2878,13 +2857,13 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -2892,7 +2871,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
@@ -2901,13 +2880,13 @@
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2915,22 +2894,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2938,22 +2917,22 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -2961,22 +2940,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -2984,22 +2963,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -3007,7 +2986,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -3016,13 +2995,13 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3030,7 +3009,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -3039,13 +3018,13 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3053,22 +3032,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -3076,22 +3055,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -3099,7 +3078,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>26</v>
@@ -3108,13 +3087,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3122,7 +3101,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>26</v>
@@ -3131,13 +3110,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3145,7 +3124,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>26</v>
@@ -3154,13 +3133,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3168,7 +3147,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>26</v>
@@ -3177,13 +3156,13 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -3191,7 +3170,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>26</v>
@@ -3200,13 +3179,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -3214,7 +3193,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>26</v>
@@ -3223,13 +3202,13 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -3237,7 +3216,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>26</v>
@@ -3246,13 +3225,13 @@
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -3260,7 +3239,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>26</v>
@@ -3269,13 +3248,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F47" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3283,7 +3262,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>26</v>
@@ -3292,13 +3271,13 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -3306,7 +3285,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>26</v>
@@ -3315,13 +3294,13 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -3329,7 +3308,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>26</v>
@@ -3338,13 +3317,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -3352,10 +3331,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -3364,10 +3343,10 @@
         <v>585</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>248</v>
+        <v>586</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>249</v>
+        <v>586</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -3375,10 +3354,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -3387,10 +3366,10 @@
         <v>585</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>250</v>
+        <v>586</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>251</v>
+        <v>586</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -3398,22 +3377,22 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -3421,7 +3400,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
@@ -3430,13 +3409,13 @@
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -3444,22 +3423,22 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -3467,22 +3446,22 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -3490,22 +3469,22 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -3513,7 +3492,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
@@ -3522,13 +3501,13 @@
         <v>60</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -3536,7 +3515,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>54</v>
@@ -3545,13 +3524,13 @@
         <v>60</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -3559,7 +3538,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>54</v>
@@ -3568,13 +3547,13 @@
         <v>60</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -3582,7 +3561,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>54</v>
@@ -3591,13 +3570,13 @@
         <v>60</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -3605,7 +3584,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>54</v>
@@ -3614,13 +3593,13 @@
         <v>60</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -3628,7 +3607,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>54</v>
@@ -3637,13 +3616,13 @@
         <v>60</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -3651,7 +3630,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>54</v>
@@ -3660,13 +3639,13 @@
         <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3674,7 +3653,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>54</v>
@@ -3683,13 +3662,13 @@
         <v>60</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -3697,22 +3676,22 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -3720,7 +3699,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>54</v>
@@ -3729,13 +3708,13 @@
         <v>60</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -3743,7 +3722,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>57</v>
@@ -3752,13 +3731,13 @@
         <v>60</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -3766,22 +3745,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -3789,22 +3768,22 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -3812,22 +3791,22 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -3835,22 +3814,22 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -3858,7 +3837,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>77</v>
@@ -3867,21 +3846,21 @@
         <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G73" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="G73" s="5"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>77</v>
@@ -3890,21 +3869,21 @@
         <v>60</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G74" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="G74" s="5"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>77</v>
@@ -3913,21 +3892,21 @@
         <v>60</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G75" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="G75" s="5"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>77</v>
@@ -3936,21 +3915,21 @@
         <v>60</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G76" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="G76" s="5"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>77</v>
@@ -3959,21 +3938,21 @@
         <v>60</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G77" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="G77" s="5"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>77</v>
@@ -3982,67 +3961,67 @@
         <v>60</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G78" s="3"/>
+        <v>296</v>
+      </c>
+      <c r="G78" s="5"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G79" s="3"/>
+        <v>298</v>
+      </c>
+      <c r="G79" s="5"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G80" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="G80" s="5"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>77</v>
@@ -4051,21 +4030,21 @@
         <v>2</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G81" s="3"/>
+        <v>301</v>
+      </c>
+      <c r="G81" s="5"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>77</v>
@@ -4074,105 +4053,105 @@
         <v>2</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G82" s="3"/>
+        <v>303</v>
+      </c>
+      <c r="G82" s="5"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="G83" s="3"/>
+        <v>304</v>
+      </c>
+      <c r="G83" s="5"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G84" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G84" s="5"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G85" s="3"/>
+        <v>307</v>
+      </c>
+      <c r="G85" s="5"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -4180,22 +4159,22 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -4203,22 +4182,22 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -4226,7 +4205,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>91</v>
@@ -4235,13 +4214,13 @@
         <v>2</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -4249,7 +4228,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>91</v>
@@ -4258,13 +4237,13 @@
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -4272,7 +4251,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>91</v>
@@ -4281,13 +4260,13 @@
         <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -4295,22 +4274,22 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -4318,22 +4297,22 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -4341,22 +4320,22 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>320</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -4364,22 +4343,22 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -4387,22 +4366,22 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -4410,22 +4389,22 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -4433,22 +4412,22 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -4456,7 +4435,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>105</v>
@@ -4465,13 +4444,13 @@
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -4479,22 +4458,22 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -4502,22 +4481,22 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -4525,22 +4504,22 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -4548,22 +4527,22 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -4571,22 +4550,22 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -4594,22 +4573,22 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -4617,22 +4596,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -4640,22 +4619,22 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -4663,22 +4642,22 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -4686,22 +4665,22 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -4709,22 +4688,22 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -4732,22 +4711,22 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -4755,22 +4734,22 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -4778,22 +4757,22 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -4801,22 +4780,22 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -4824,22 +4803,22 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -4847,22 +4826,22 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -4870,22 +4849,22 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -4893,22 +4872,22 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -4916,22 +4895,22 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -4939,22 +4918,22 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -4962,7 +4941,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>105</v>
@@ -4971,13 +4950,13 @@
         <v>60</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -4985,7 +4964,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>112</v>
@@ -4994,13 +4973,13 @@
         <v>60</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -5008,22 +4987,22 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -5031,22 +5010,22 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -5054,22 +5033,22 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -5077,7 +5056,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>77</v>
@@ -5086,13 +5065,13 @@
         <v>60</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -5100,22 +5079,22 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -5123,22 +5102,22 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -5146,22 +5125,22 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -5169,7 +5148,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>105</v>
@@ -5178,13 +5157,13 @@
         <v>60</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -5192,22 +5171,22 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -5215,22 +5194,22 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -5238,7 +5217,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>105</v>
@@ -5247,13 +5226,13 @@
         <v>60</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -5261,22 +5240,22 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -5284,22 +5263,22 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -5307,22 +5286,22 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -5330,22 +5309,22 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -5353,22 +5332,22 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -5376,7 +5355,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>105</v>
@@ -5385,13 +5364,13 @@
         <v>60</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -5399,22 +5378,22 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -5422,22 +5401,22 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
@@ -5445,7 +5424,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>109</v>
@@ -5454,13 +5433,13 @@
         <v>60</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -5468,22 +5447,22 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -5491,22 +5470,22 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -5514,7 +5493,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>105</v>
@@ -5523,13 +5502,13 @@
         <v>60</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -5537,7 +5516,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>105</v>
@@ -5546,13 +5525,13 @@
         <v>60</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -5560,22 +5539,22 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -5583,22 +5562,22 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -5606,22 +5585,22 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -5629,7 +5608,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>112</v>
@@ -5638,13 +5617,13 @@
         <v>60</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -5652,22 +5631,22 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -5675,22 +5654,22 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -5698,22 +5677,22 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -5721,7 +5700,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>162</v>
@@ -5730,13 +5709,13 @@
         <v>60</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -5744,7 +5723,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>162</v>
@@ -5753,13 +5732,13 @@
         <v>60</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -5767,7 +5746,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>162</v>
@@ -5776,13 +5755,13 @@
         <v>60</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -5790,7 +5769,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>162</v>
@@ -5799,13 +5778,13 @@
         <v>60</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -5813,7 +5792,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>162</v>
@@ -5822,13 +5801,13 @@
         <v>60</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -5836,7 +5815,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>162</v>
@@ -5845,13 +5824,13 @@
         <v>60</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -5859,7 +5838,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>162</v>
@@ -5868,13 +5847,13 @@
         <v>60</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
@@ -5882,22 +5861,22 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -5905,22 +5884,22 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -5928,22 +5907,22 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -5951,7 +5930,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>174</v>
@@ -5960,13 +5939,13 @@
         <v>60</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
@@ -5974,7 +5953,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>174</v>
@@ -5983,13 +5962,13 @@
         <v>60</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -5997,7 +5976,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>174</v>
@@ -6006,13 +5985,13 @@
         <v>60</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -6020,7 +5999,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>174</v>
@@ -6029,13 +6008,13 @@
         <v>60</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -6043,7 +6022,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>174</v>
@@ -6052,13 +6031,13 @@
         <v>60</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -6066,7 +6045,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>174</v>
@@ -6075,13 +6054,13 @@
         <v>60</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -6089,7 +6068,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>174</v>
@@ -6098,13 +6077,13 @@
         <v>60</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -6112,7 +6091,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>174</v>
@@ -6121,13 +6100,13 @@
         <v>60</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -6135,7 +6114,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>174</v>
@@ -6144,13 +6123,13 @@
         <v>60</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -6158,7 +6137,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>174</v>
@@ -6167,13 +6146,13 @@
         <v>60</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -6181,7 +6160,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>174</v>
@@ -6190,13 +6169,13 @@
         <v>60</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -6204,7 +6183,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>174</v>
@@ -6213,13 +6192,13 @@
         <v>60</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -6227,7 +6206,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>174</v>
@@ -6236,13 +6215,13 @@
         <v>60</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -6250,7 +6229,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>174</v>
@@ -6259,13 +6238,13 @@
         <v>60</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -6273,7 +6252,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>174</v>
@@ -6282,13 +6261,13 @@
         <v>60</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -6296,7 +6275,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>174</v>
@@ -6305,13 +6284,13 @@
         <v>60</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
@@ -6319,7 +6298,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>174</v>
@@ -6328,13 +6307,13 @@
         <v>60</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -6342,7 +6321,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>174</v>
@@ -6351,13 +6330,13 @@
         <v>60</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -6365,7 +6344,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>174</v>
@@ -6374,13 +6353,13 @@
         <v>60</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -6388,22 +6367,22 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -6411,22 +6390,22 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -6434,7 +6413,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>1</v>
@@ -6443,13 +6422,13 @@
         <v>2</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
@@ -6457,7 +6436,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>1</v>
@@ -6466,13 +6445,13 @@
         <v>2</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
@@ -6480,7 +6459,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>1</v>
@@ -6489,13 +6468,13 @@
         <v>2</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -6503,7 +6482,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>1</v>
@@ -6512,13 +6491,13 @@
         <v>2</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -6526,7 +6505,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>1</v>
@@ -6535,13 +6514,13 @@
         <v>2</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
@@ -6549,22 +6528,22 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -6572,22 +6551,22 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -6595,7 +6574,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>162</v>
@@ -6604,13 +6583,13 @@
         <v>60</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -6618,7 +6597,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>162</v>
@@ -6627,13 +6606,13 @@
         <v>60</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -6641,7 +6620,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>162</v>
@@ -6650,13 +6629,13 @@
         <v>60</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
@@ -6664,7 +6643,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>162</v>
@@ -6673,13 +6652,13 @@
         <v>60</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -6687,7 +6666,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>162</v>
@@ -6696,13 +6675,13 @@
         <v>60</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -6710,7 +6689,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>162</v>
@@ -6719,13 +6698,13 @@
         <v>60</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -6733,7 +6712,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>162</v>
@@ -6742,13 +6721,13 @@
         <v>60</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
@@ -6756,7 +6735,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>162</v>
@@ -6765,13 +6744,13 @@
         <v>60</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -6779,7 +6758,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>162</v>
@@ -6788,13 +6767,13 @@
         <v>60</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -6802,7 +6781,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>162</v>
@@ -6811,13 +6790,13 @@
         <v>60</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -6825,7 +6804,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>162</v>
@@ -6834,13 +6813,13 @@
         <v>60</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -6848,22 +6827,22 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -6871,22 +6850,22 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -6894,7 +6873,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>105</v>
@@ -6903,13 +6882,13 @@
         <v>60</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
@@ -6917,7 +6896,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>105</v>
@@ -6926,13 +6905,13 @@
         <v>60</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -6940,7 +6919,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>105</v>
@@ -6949,13 +6928,13 @@
         <v>60</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -6963,7 +6942,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>105</v>
@@ -6972,13 +6951,13 @@
         <v>60</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -6986,7 +6965,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>105</v>
@@ -6995,13 +6974,13 @@
         <v>60</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
@@ -7009,22 +6988,22 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -7032,22 +7011,22 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
@@ -7055,22 +7034,22 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
@@ -7078,22 +7057,22 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
@@ -7101,22 +7080,22 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
@@ -7124,7 +7103,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>226</v>
@@ -7133,13 +7112,13 @@
         <v>60</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
@@ -7147,22 +7126,22 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
@@ -7170,22 +7149,22 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
@@ -7193,22 +7172,22 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
@@ -7216,22 +7195,22 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
@@ -7239,7 +7218,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>226</v>
@@ -7248,13 +7227,13 @@
         <v>60</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
@@ -7262,7 +7241,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>226</v>
@@ -7271,13 +7250,13 @@
         <v>60</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
@@ -7285,7 +7264,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>226</v>
@@ -7294,13 +7273,13 @@
         <v>60</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
@@ -7308,22 +7287,22 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
@@ -7331,22 +7310,22 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
@@ -7354,7 +7333,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>1</v>
@@ -7363,13 +7342,13 @@
         <v>2</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
@@ -7377,7 +7356,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>1</v>
@@ -7386,24 +7365,60 @@
         <v>2</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>580</v>
+      </c>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
@@ -11373,7 +11388,20 @@
       <c r="H1021" s="3"/>
       <c r="I1021" s="3"/>
     </row>
+    <row r="1022" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G1022" s="3"/>
+      <c r="H1022" s="3"/>
+      <c r="I1022" s="3"/>
+    </row>
+    <row r="1023" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G1023" s="3"/>
+      <c r="H1023" s="3"/>
+      <c r="I1023" s="3"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A2C3E6F8-A47B-0D4B-AE4D-53AE31DE3E33}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Sample_ID_Lookup_table_in_repositories.xlsx
+++ b/Sample_ID_Lookup_table_in_repositories.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allakarpova/Box Sync/snATAC_pancan/tumor_Alla/Suppl.tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A2FC9E-E22F-F541-BF27-08BF56203A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5EDD5A-A9C6-2840-BA3D-25CCBD9504DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="27640" windowHeight="21900" xr2:uid="{8A857C8D-A7ED-5E4A-9723-60A27A53F0CD}"/>
+    <workbookView xWindow="4120" yWindow="500" windowWidth="37960" windowHeight="25640" xr2:uid="{8A857C8D-A7ED-5E4A-9723-60A27A53F0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="ATAC data" sheetId="1" r:id="rId1"/>
-    <sheet name="RNA data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="646">
   <si>
     <t>BM2</t>
   </si>
@@ -1788,12 +1787,6 @@
     <t>ATAC data type</t>
   </si>
   <si>
-    <t>Where data uploaded to</t>
-  </si>
-  <si>
-    <t>HTAN DCC</t>
-  </si>
-  <si>
     <t>CDS</t>
   </si>
   <si>
@@ -1807,13 +1800,187 @@
   </si>
   <si>
     <t>Piece_ID_ATAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE240822 </t>
+  </si>
+  <si>
+    <t>Raw data uploaded to</t>
+  </si>
+  <si>
+    <t>Processed data uploaded to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/projects/gap/cgi-bin/study.cgi?study_id=phs002371.v3.p1 </t>
+  </si>
+  <si>
+    <t>HTAN dbGaP link</t>
+  </si>
+  <si>
+    <t>CPTAC dbGap link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/projects/gap/cgi-bin/study.cgi?study_id=phs001287.v17.p6 </t>
+  </si>
+  <si>
+    <t>dbGAP, browse through HTAN DCC</t>
+  </si>
+  <si>
+    <t>CPTAC GEO link</t>
+  </si>
+  <si>
+    <t>GEO GSE240822</t>
+  </si>
+  <si>
+    <t>Synapse,browse through HTAN DCC</t>
+  </si>
+  <si>
+    <t>GEO sample name</t>
+  </si>
+  <si>
+    <t>C3L-00004-T1_CPT0001540013_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00010-T1_CPT0001220012_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00026-T1_CPT0001500003_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00079-N_CPT0001270002_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00079-T1_CPT0001260013_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00088-N_CPT0000890002_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00088-T1_CPT0000870003_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00088-T2_CPT0000880001_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00096-T1_CPT0001180011_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00416-T2_CPT0010100001_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00448-T1_CPT0010160004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00583-T1_CPT0019130004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00610-T1_CPT0025110004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00790-T1_CPT0065690004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00908-T1_CPT0086350004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-00917-T1_CPT0023690004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-01287-T1_CPT0079410004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-01302-T1_CPT0063630004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-01313-T1_CPT0086820004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3L-02705_CPT0189650015_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3L-03405_CPT0224600013_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3L-03968_CPT0228220004_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-00242-N_CPT0014470002_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3N-00242-T1_CPT0014450005_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3N-00317-T1_CPT0012280004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3N-00437-T1_CPT0012550012_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3N-00495-T1_CPT0078510004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3N-00662_CPT0087680014_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-00663_CPT0087730014_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-00733-T1_CPT0025880013_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3N-01200-N_CPT0075170013_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3N-01200-T1_CPT0075130004_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3N-01213-T1_CPT0075720013_snATAC_ccRCC</t>
+  </si>
+  <si>
+    <t>C3N-01334_CPT0125220004_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-01518_CPT0167640014_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-01798_CPT0167750015_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-01814_CPT0167860015_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-01816_CPT0168080014_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-01818_CPT0168270014_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-02181_CPT0168380014_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-02186_CPT0168720014_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-02188_CPT0168830014_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-02769_CPT0205570014_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-02783_CPT0205890014_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-02784_CPT0206000015_snATAC_GBM</t>
+  </si>
+  <si>
+    <t>C3N-03186_CPT0206880004_snATAC_GBM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1857,6 +2024,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1879,13 +2076,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2201,217 +2402,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA608FF-98EC-6A48-B5D4-D22FC77FAB05}">
-  <dimension ref="A1:I1023"/>
+  <dimension ref="A1:I1027"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H230" sqref="H230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>586</v>
+        <v>242</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+        <v>243</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>586</v>
+        <v>244</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+        <v>245</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>586</v>
+        <v>246</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>247</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -2420,21 +2573,25 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>600</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -2443,21 +2600,25 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>601</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -2466,21 +2627,25 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>602</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -2489,21 +2654,25 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>603</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -2512,21 +2681,25 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>604</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -2535,21 +2708,25 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -2558,21 +2735,25 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>606</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
@@ -2581,21 +2762,25 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>607</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -2604,21 +2789,25 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>608</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -2627,21 +2816,25 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>609</v>
+      </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -2650,21 +2843,25 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -2673,21 +2870,25 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>611</v>
+      </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
@@ -2696,21 +2897,25 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>612</v>
+      </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
@@ -2719,21 +2924,25 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>613</v>
+      </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -2742,90 +2951,106 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>614</v>
+      </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>615</v>
+      </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>617</v>
+      </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
@@ -2834,90 +3059,106 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>618</v>
+      </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>619</v>
+      </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>621</v>
+      </c>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
@@ -2926,67 +3167,79 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>622</v>
+      </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>623</v>
+      </c>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>624</v>
+      </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -2995,21 +3248,25 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>625</v>
+      </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -3018,159 +3275,187 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>626</v>
+      </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>627</v>
+      </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>628</v>
+      </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>629</v>
+      </c>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>630</v>
+      </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>631</v>
+      </c>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>632</v>
+      </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>26</v>
@@ -3179,21 +3464,25 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>633</v>
+      </c>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>26</v>
@@ -3202,21 +3491,25 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>634</v>
+      </c>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>26</v>
@@ -3225,21 +3518,25 @@
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>635</v>
+      </c>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>26</v>
@@ -3248,21 +3545,25 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>636</v>
+      </c>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>26</v>
@@ -3271,21 +3572,25 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>637</v>
+      </c>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>26</v>
@@ -3294,21 +3599,25 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>638</v>
+      </c>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>26</v>
@@ -3317,21 +3626,25 @@
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>639</v>
+      </c>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>26</v>
@@ -3340,21 +3653,25 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>640</v>
+      </c>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>26</v>
@@ -3363,228 +3680,268 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>641</v>
+      </c>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>248</v>
+        <v>584</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>642</v>
+      </c>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>250</v>
+        <v>584</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>643</v>
+      </c>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>252</v>
+        <v>584</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>644</v>
+      </c>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>254</v>
+        <v>584</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>645</v>
+      </c>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+        <v>249</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+        <v>253</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+        <v>255</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+        <v>257</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>54</v>
@@ -3593,21 +3950,25 @@
         <v>60</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+        <v>259</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>54</v>
@@ -3616,21 +3977,25 @@
         <v>60</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+        <v>261</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>54</v>
@@ -3639,21 +4004,25 @@
         <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+        <v>263</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>54</v>
@@ -3662,21 +4031,25 @@
         <v>60</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+        <v>265</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>54</v>
@@ -3685,21 +4058,25 @@
         <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+        <v>267</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>54</v>
@@ -3708,44 +4085,52 @@
         <v>60</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+        <v>269</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>54</v>
@@ -3754,182 +4139,214 @@
         <v>60</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+        <v>273</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+        <v>275</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+        <v>279</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="3"/>
+        <v>281</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="3"/>
+        <v>285</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="3"/>
+        <v>287</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>77</v>
@@ -3938,21 +4355,25 @@
         <v>60</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>77</v>
@@ -3961,21 +4382,25 @@
         <v>60</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>77</v>
@@ -3984,21 +4409,25 @@
         <v>60</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>77</v>
@@ -4007,228 +4436,268 @@
         <v>60</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="3"/>
+        <v>296</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="3"/>
+        <v>298</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="3"/>
+        <v>301</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
+        <v>303</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+        <v>304</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+        <v>307</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>91</v>
@@ -4237,67 +4706,79 @@
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
+        <v>309</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+        <v>312</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>91</v>
@@ -4306,67 +4787,79 @@
         <v>2</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+        <v>313</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
+        <v>316</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>91</v>
@@ -4375,274 +4868,322 @@
         <v>2</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
+        <v>319</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
+        <v>322</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
+        <v>323</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
+        <v>325</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+        <v>327</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+        <v>329</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+        <v>331</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
+        <v>333</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
+        <v>335</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I106" s="3"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
+        <v>337</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>112</v>
@@ -4651,21 +5192,25 @@
         <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
+        <v>339</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>112</v>
@@ -4674,67 +5219,79 @@
         <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
+        <v>340</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
+        <v>342</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I110" s="3"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
+        <v>344</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I111" s="3"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>112</v>
@@ -4743,44 +5300,52 @@
         <v>2</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
+        <v>346</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
+        <v>348</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>109</v>
@@ -4789,44 +5354,52 @@
         <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
+        <v>350</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I114" s="3"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
+        <v>352</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I115" s="3"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>112</v>
@@ -4835,21 +5408,25 @@
         <v>2</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
+        <v>354</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I116" s="3"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>105</v>
@@ -4858,90 +5435,106 @@
         <v>60</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
+        <v>356</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
+        <v>358</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
+        <v>360</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I119" s="3"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
+        <v>362</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I120" s="3"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>105</v>
@@ -4950,136 +5543,160 @@
         <v>60</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
+        <v>364</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
+        <v>366</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I122" s="3"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I123" s="3"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
+        <v>370</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I124" s="3"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
+        <v>372</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I125" s="3"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
+        <v>374</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I126" s="3"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>105</v>
@@ -5088,274 +5705,322 @@
         <v>60</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
+        <v>376</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
+        <v>378</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
+        <v>380</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I129" s="3"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
+        <v>382</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
+        <v>384</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
+        <v>386</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
+        <v>388</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
+        <v>390</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
+        <v>392</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
+        <v>394</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
+        <v>395</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
+        <v>397</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>105</v>
@@ -5364,21 +6029,25 @@
         <v>60</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
+        <v>399</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I139" s="3"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>77</v>
@@ -5387,113 +6056,133 @@
         <v>60</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
+        <v>401</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I140" s="3"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
+        <v>407</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
+        <v>409</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>105</v>
@@ -5502,297 +6191,349 @@
         <v>60</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
+        <v>411</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I145" s="3"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
+        <v>413</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
+        <v>414</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I147" s="3"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
+        <v>416</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I148" s="3"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
+        <v>418</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I149" s="3"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
+        <v>420</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I150" s="3"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
+        <v>422</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I151" s="3"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
+        <v>424</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I152" s="3"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I153" s="3"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
+        <v>428</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I154" s="3"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
+        <v>430</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I155" s="3"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
+        <v>432</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I156" s="3"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
+        <v>434</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I157" s="3"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>162</v>
@@ -5801,21 +6542,25 @@
         <v>60</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
+        <v>436</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I158" s="3"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>162</v>
@@ -5824,21 +6569,25 @@
         <v>60</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
+        <v>438</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I159" s="3"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>162</v>
@@ -5847,21 +6596,25 @@
         <v>60</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
+        <v>440</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>162</v>
@@ -5870,21 +6623,25 @@
         <v>60</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
+        <v>442</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I161" s="3"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>162</v>
@@ -5893,136 +6650,160 @@
         <v>60</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
+        <v>444</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I162" s="3"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
+        <v>446</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I163" s="3"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
+        <v>448</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I164" s="3"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
+        <v>450</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I165" s="3"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
+        <v>452</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I166" s="3"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
+        <v>454</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I167" s="3"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>174</v>
@@ -6031,21 +6812,25 @@
         <v>60</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
+        <v>456</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I168" s="3"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>174</v>
@@ -6054,21 +6839,25 @@
         <v>60</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
+        <v>458</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I169" s="3"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>174</v>
@@ -6077,21 +6866,25 @@
         <v>60</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
+        <v>459</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I170" s="3"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>174</v>
@@ -6100,21 +6893,25 @@
         <v>60</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
+        <v>461</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I171" s="3"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>174</v>
@@ -6123,21 +6920,25 @@
         <v>60</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
+        <v>463</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I172" s="3"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>174</v>
@@ -6146,21 +6947,25 @@
         <v>60</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
+        <v>465</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I173" s="3"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>174</v>
@@ -6169,21 +6974,25 @@
         <v>60</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
+        <v>467</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I174" s="3"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>174</v>
@@ -6192,21 +7001,25 @@
         <v>60</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
+        <v>469</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I175" s="3"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>174</v>
@@ -6215,21 +7028,25 @@
         <v>60</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
+        <v>471</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I176" s="3"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>174</v>
@@ -6238,21 +7055,25 @@
         <v>60</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
+        <v>473</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I177" s="3"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>174</v>
@@ -6261,21 +7082,25 @@
         <v>60</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
+        <v>475</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I178" s="3"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>174</v>
@@ -6284,21 +7109,25 @@
         <v>60</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
+        <v>477</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I179" s="3"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>174</v>
@@ -6307,21 +7136,25 @@
         <v>60</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
+        <v>479</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I180" s="3"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>174</v>
@@ -6330,21 +7163,25 @@
         <v>60</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
+        <v>481</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I181" s="3"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>174</v>
@@ -6353,21 +7190,25 @@
         <v>60</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
+        <v>483</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I182" s="3"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>174</v>
@@ -6376,21 +7217,25 @@
         <v>60</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
+        <v>485</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I183" s="3"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>174</v>
@@ -6399,113 +7244,133 @@
         <v>60</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
+        <v>487</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I184" s="3"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
+        <v>489</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I185" s="3"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
+        <v>491</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I186" s="3"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
+        <v>493</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I187" s="3"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
+        <v>495</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I188" s="3"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>1</v>
@@ -6514,21 +7379,25 @@
         <v>2</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
+        <v>497</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I189" s="3"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>1</v>
@@ -6537,21 +7406,25 @@
         <v>2</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
+        <v>499</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I190" s="3"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>1</v>
@@ -6560,113 +7433,133 @@
         <v>2</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
+        <v>501</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I191" s="3"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
+        <v>503</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I192" s="3"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
+        <v>505</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I193" s="3"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
+        <v>507</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I194" s="3"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
+        <v>509</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I195" s="3"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>162</v>
@@ -6675,21 +7568,25 @@
         <v>60</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
+        <v>511</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>162</v>
@@ -6698,21 +7595,25 @@
         <v>60</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
+        <v>512</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I197" s="3"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>162</v>
@@ -6721,21 +7622,25 @@
         <v>60</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
+        <v>514</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I198" s="3"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>162</v>
@@ -6744,21 +7649,25 @@
         <v>60</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
+        <v>515</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I199" s="3"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>162</v>
@@ -6767,21 +7676,25 @@
         <v>60</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
+        <v>517</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I200" s="3"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>162</v>
@@ -6790,21 +7703,25 @@
         <v>60</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
+        <v>519</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I201" s="3"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>162</v>
@@ -6813,21 +7730,25 @@
         <v>60</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
+        <v>521</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I202" s="3"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>162</v>
@@ -6836,21 +7757,25 @@
         <v>60</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
+        <v>523</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>162</v>
@@ -6859,113 +7784,133 @@
         <v>60</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
+        <v>525</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I204" s="3"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
+        <v>527</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I205" s="3"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
+        <v>529</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I206" s="3"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
+        <v>531</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I207" s="3"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
+        <v>533</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I208" s="3"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>105</v>
@@ -6974,21 +7919,25 @@
         <v>60</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
+        <v>535</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I209" s="3"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>105</v>
@@ -6997,21 +7946,25 @@
         <v>60</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
+        <v>537</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I210" s="3"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>105</v>
@@ -7020,205 +7973,241 @@
         <v>60</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
+        <v>539</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I211" s="3"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
+        <v>541</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I212" s="3"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
+        <v>543</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I213" s="3"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
+        <v>545</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I214" s="3"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
+        <v>547</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I215" s="3"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
+        <v>549</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I216" s="3"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
+        <v>551</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I217" s="3"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
+        <v>553</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I218" s="3"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
+        <v>555</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I219" s="3"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>226</v>
@@ -7227,21 +8216,25 @@
         <v>60</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
+        <v>557</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I220" s="3"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>226</v>
@@ -7250,67 +8243,79 @@
         <v>60</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
+        <v>558</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I221" s="3"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
+        <v>560</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I222" s="3"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
+        <v>562</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I223" s="3"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>226</v>
@@ -7319,128 +8324,236 @@
         <v>60</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
+        <v>564</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I224" s="3"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
+        <v>566</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I225" s="3"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
+        <v>568</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I226" s="3"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
+        <v>570</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I227" s="3"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I228" s="3"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I229" s="3"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I230" s="3"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I231" s="3"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E228" s="3" t="s">
+      <c r="D232" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E232" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="F228" s="3" t="s">
+      <c r="F232" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
+      <c r="G232" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="I232" s="3"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -11398,22 +12511,34 @@
       <c r="H1023" s="3"/>
       <c r="I1023" s="3"/>
     </row>
+    <row r="1024" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G1024" s="3"/>
+      <c r="H1024" s="3"/>
+      <c r="I1024" s="3"/>
+    </row>
+    <row r="1025" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G1025" s="3"/>
+      <c r="H1025" s="3"/>
+      <c r="I1025" s="3"/>
+    </row>
+    <row r="1026" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G1026" s="3"/>
+      <c r="H1026" s="3"/>
+      <c r="I1026" s="3"/>
+    </row>
+    <row r="1027" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G1027" s="3"/>
+      <c r="H1027" s="3"/>
+      <c r="I1027" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A2C3E6F8-A47B-0D4B-AE4D-53AE31DE3E33}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{A2C3E6F8-A47B-0D4B-AE4D-53AE31DE3E33}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{198B2E74-6DBC-C746-B04D-754B4A89301D}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{24F4AF5C-7732-D34C-97F5-F64C7F747396}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{9013AF23-9177-884B-A129-D06F69300E56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4DA082-C041-AF4D-B61E-DC46C32577BE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Sample_ID_Lookup_table_in_repositories.xlsx
+++ b/Sample_ID_Lookup_table_in_repositories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allakarpova/Box Sync/snATAC_pancan/tumor_Alla/Suppl.tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadezhdaterekhanova/Desktop/Git_hub/Public_dirs/PanCan_snATAC_publication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E7E1F5-B734-F344-904D-E6DD6B94BBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E275DAD9-757F-C44E-BB53-9BC62D58DFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="34600" windowHeight="21900" activeTab="1" xr2:uid="{8A857C8D-A7ED-5E4A-9723-60A27A53F0CD}"/>
+    <workbookView xWindow="36940" yWindow="3900" windowWidth="30340" windowHeight="19620" activeTab="1" xr2:uid="{8A857C8D-A7ED-5E4A-9723-60A27A53F0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="ATAC data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="763">
   <si>
     <t>BM2</t>
   </si>
@@ -2317,6 +2317,15 @@
   </si>
   <si>
     <t>https://portal.gdc.cancer.gov/</t>
+  </si>
+  <si>
+    <t>HTA12_28</t>
+  </si>
+  <si>
+    <t>HTA12_28_4</t>
+  </si>
+  <si>
+    <t>HTA12_28_6</t>
   </si>
 </sst>
 </file>
@@ -2469,7 +2478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2495,7 +2504,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13774,8 +13782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE89A45-DC42-6348-9E61-BFC731B13A17}">
   <dimension ref="A1:M1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14673,7 +14681,7 @@
       <c r="D32" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" t="s">
         <v>744</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -14855,7 +14863,7 @@
       <c r="D38" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" t="s">
         <v>745</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -15037,7 +15045,7 @@
       <c r="D44" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" t="s">
         <v>746</v>
       </c>
       <c r="F44" s="8" t="s">
@@ -15099,7 +15107,7 @@
       <c r="D46" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" t="s">
         <v>747</v>
       </c>
       <c r="F46" s="8" t="s">
@@ -15131,7 +15139,7 @@
       <c r="D47" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" t="s">
         <v>748</v>
       </c>
       <c r="F47" s="8" t="s">
@@ -15163,7 +15171,7 @@
       <c r="D48" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" t="s">
         <v>749</v>
       </c>
       <c r="F48" s="8" t="s">
@@ -15225,7 +15233,7 @@
       <c r="D50" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" t="s">
         <v>750</v>
       </c>
       <c r="F50" s="8" t="s">
@@ -15287,7 +15295,7 @@
       <c r="D52" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" t="s">
         <v>751</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -15319,7 +15327,7 @@
       <c r="D53" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" t="s">
         <v>752</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -15351,7 +15359,7 @@
       <c r="D54" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" t="s">
         <v>753</v>
       </c>
       <c r="F54" s="8" t="s">
@@ -15383,7 +15391,7 @@
       <c r="D55" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" t="s">
         <v>754</v>
       </c>
       <c r="F55" s="8" t="s">
@@ -15415,7 +15423,7 @@
       <c r="D56" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" t="s">
         <v>755</v>
       </c>
       <c r="F56" s="8" t="s">
@@ -17469,10 +17477,10 @@
         <v>588</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>385</v>
+        <v>760</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>386</v>
+        <v>761</v>
       </c>
       <c r="I122" s="8" t="s">
         <v>574</v>
@@ -17500,10 +17508,10 @@
         <v>588</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>385</v>
+        <v>760</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>387</v>
+        <v>762</v>
       </c>
       <c r="I123" s="8" t="s">
         <v>574</v>

--- a/Sample_ID_Lookup_table_in_repositories.xlsx
+++ b/Sample_ID_Lookup_table_in_repositories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadezhdaterekhanova/Desktop/Git_hub/Public_dirs/PanCan_snATAC_publication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BC79CD-727D-2A47-AADE-368035CC0276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463770F6-9C6E-D94E-A277-7F40ADBF5768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36920" yWindow="3900" windowWidth="30340" windowHeight="19620" xr2:uid="{8A857C8D-A7ED-5E4A-9723-60A27A53F0CD}"/>
   </bookViews>
@@ -2824,10 +2824,10 @@
   <dimension ref="A1:J1027"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H138" sqref="H138"/>
+      <selection pane="bottomRight" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5278,7 +5278,7 @@
         <v>300</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>571</v>
@@ -5308,7 +5308,7 @@
         <v>300</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>571</v>
@@ -13773,8 +13773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE89A45-DC42-6348-9E61-BFC731B13A17}">
   <dimension ref="A1:M1027"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16169,7 +16169,7 @@
         <v>300</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>571</v>
@@ -16200,7 +16200,7 @@
         <v>300</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>571</v>
